--- a/target/classes/ExcelFiles/Administration_Data.xlsx
+++ b/target/classes/ExcelFiles/Administration_Data.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{D79BEF37-841A-4AC8-BD3A-9D4DA351B06A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\philip_parker\Documents\GitHub\UnifyedAdmit\src\main\java\ExcelFiles\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287392EB-36A6-4F4F-A3EB-45D63C38A680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B1D32BE3-BF2C-4677-88D2-DF7E4C3A63A1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B1D32BE3-BF2C-4677-88D2-DF7E4C3A63A1}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCred" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +42,7 @@
     <t>pankaj@unifyedadmitqa.edu</t>
   </si>
   <si>
-    <t>Admin@12</t>
+    <t>Password9</t>
   </si>
 </sst>
 </file>
@@ -404,16 +408,16 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -421,7 +425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -429,7 +433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -441,10 +445,9 @@
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{44F5C414-F488-4E5A-8293-BDF920993D02}"/>
     <hyperlink ref="A2" r:id="rId2" xr:uid="{874192D9-AD0D-420C-99E9-080791BD1B9F}"/>
-    <hyperlink ref="B3" r:id="rId3" xr:uid="{3B66D7F7-27F4-4A00-88C4-B12858A35E42}"/>
-    <hyperlink ref="A3" r:id="rId4" xr:uid="{24A2E627-F3AD-4EE6-8D70-BCD20FEB1D08}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{24A2E627-F3AD-4EE6-8D70-BCD20FEB1D08}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
 </worksheet>
 </file>